--- a/ОДиМТР/Семинар 1. Диаграммы и средние значения.xlsx
+++ b/ОДиМТР/Семинар 1. Диаграммы и средние значения.xlsx
@@ -8,18 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\222690\Desktop\ОДиМТР\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85D81424-1B9E-4848-9670-70C86DD0A284}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A5150CB-9BB8-43A4-B650-FE49470627FC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{F087F3CD-7FB2-4257-87D2-CC624A7269CC}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" activeTab="1" xr2:uid="{F087F3CD-7FB2-4257-87D2-CC624A7269CC}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="Лист2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlchart.v1.0" hidden="1">Лист1!$D$23:$D$86</definedName>
     <definedName name="_xlchart.v1.1" hidden="1">Лист1!$D$2:$D$21</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Лист1!$D$2:$D$21</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Лист1!$D$23:$D$86</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="44">
   <si>
     <t>ФИО</t>
   </si>
@@ -134,6 +133,36 @@
   <si>
     <t>Среднее арифметическое</t>
   </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>ВТБ ао</t>
+  </si>
+  <si>
+    <t>ГАЗПРОМ ао</t>
+  </si>
+  <si>
+    <t>Сбербанк</t>
+  </si>
+  <si>
+    <t>&lt;VOL&gt;</t>
+  </si>
+  <si>
+    <t>&lt;CLOSE&gt;</t>
+  </si>
+  <si>
+    <t>&lt;TIME&gt;</t>
+  </si>
+  <si>
+    <t>&lt;DATE&gt;</t>
+  </si>
+  <si>
+    <t>&lt;PER&gt;</t>
+  </si>
+  <si>
+    <t>&lt;TICKER&gt;</t>
+  </si>
 </sst>
 </file>
 
@@ -193,12 +222,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1743,7 +1774,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.2</cx:f>
+        <cx:f>_xlchart.v1.1</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -1864,7 +1895,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.3</cx:f>
+        <cx:f>_xlchart.v1.0</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -4865,8 +4896,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="4781550" y="3633787"/>
-              <a:ext cx="4572000" cy="2743200"/>
+              <a:off x="4800600" y="3633787"/>
+              <a:ext cx="6096000" cy="2743200"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -5312,7 +5343,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68C3C0B4-15E9-4339-B1E2-723D8B663BAA}">
   <dimension ref="A1:J86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="L43" sqref="L43"/>
     </sheetView>
   </sheetViews>
@@ -6526,4 +6557,1547 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E684D68B-3746-4C45-A8EC-EC122FBB205C}">
+  <dimension ref="A1:F76"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="4">
+        <v>44958</v>
+      </c>
+      <c r="D2" s="3">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>169.82</v>
+      </c>
+      <c r="F2">
+        <v>1171831740</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" s="4">
+        <v>44986</v>
+      </c>
+      <c r="D3" s="3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>216.6</v>
+      </c>
+      <c r="F3">
+        <v>1911872530</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" s="4">
+        <v>45017</v>
+      </c>
+      <c r="D4" s="3">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>240.38</v>
+      </c>
+      <c r="F4">
+        <v>1218235890</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" s="4">
+        <v>45047</v>
+      </c>
+      <c r="D5" s="3">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>246.17</v>
+      </c>
+      <c r="F5">
+        <v>1493184520</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" s="4">
+        <v>45078</v>
+      </c>
+      <c r="D6" s="3">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>239.61</v>
+      </c>
+      <c r="F6">
+        <v>947236810</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" s="4">
+        <v>45108</v>
+      </c>
+      <c r="D7" s="3">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>267.39999999999998</v>
+      </c>
+      <c r="F7">
+        <v>872668380</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" s="4">
+        <v>45139</v>
+      </c>
+      <c r="D8" s="3">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>264.85000000000002</v>
+      </c>
+      <c r="F8">
+        <v>1252819750</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" s="4">
+        <v>45170</v>
+      </c>
+      <c r="D9" s="3">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>260.72000000000003</v>
+      </c>
+      <c r="F9">
+        <v>935733460</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>37</v>
+      </c>
+      <c r="B10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" s="4">
+        <v>45200</v>
+      </c>
+      <c r="D10" s="3">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>268.35000000000002</v>
+      </c>
+      <c r="F10">
+        <v>801320540</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>37</v>
+      </c>
+      <c r="B11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" s="4">
+        <v>45231</v>
+      </c>
+      <c r="D11" s="3">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>277.5</v>
+      </c>
+      <c r="F11">
+        <v>800054510</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>37</v>
+      </c>
+      <c r="B12" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" s="4">
+        <v>45261</v>
+      </c>
+      <c r="D12" s="3">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>270.82</v>
+      </c>
+      <c r="F12">
+        <v>953107080</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>37</v>
+      </c>
+      <c r="B13" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13" s="4">
+        <v>45292</v>
+      </c>
+      <c r="D13" s="3">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>276</v>
+      </c>
+      <c r="F13">
+        <v>406989360</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" s="4">
+        <v>45323</v>
+      </c>
+      <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>292.19</v>
+      </c>
+      <c r="F14">
+        <v>647659560</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>37</v>
+      </c>
+      <c r="B15" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15" s="4">
+        <v>45352</v>
+      </c>
+      <c r="D15" s="3">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>298.72000000000003</v>
+      </c>
+      <c r="F15">
+        <v>650186230</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>37</v>
+      </c>
+      <c r="B16" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16" s="4">
+        <v>45383</v>
+      </c>
+      <c r="D16" s="3">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>308.24</v>
+      </c>
+      <c r="F16">
+        <v>625195720</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>37</v>
+      </c>
+      <c r="B17" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17" s="4">
+        <v>45413</v>
+      </c>
+      <c r="D17" s="3">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>313.11</v>
+      </c>
+      <c r="F17">
+        <v>579674460</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>37</v>
+      </c>
+      <c r="B18" t="s">
+        <v>34</v>
+      </c>
+      <c r="C18" s="4">
+        <v>45444</v>
+      </c>
+      <c r="D18" s="3">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>327.14999999999998</v>
+      </c>
+      <c r="F18">
+        <v>671606400</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>37</v>
+      </c>
+      <c r="B19" t="s">
+        <v>34</v>
+      </c>
+      <c r="C19" s="4">
+        <v>45474</v>
+      </c>
+      <c r="D19" s="3">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>289.3</v>
+      </c>
+      <c r="F19">
+        <v>1113181100</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>37</v>
+      </c>
+      <c r="B20" t="s">
+        <v>34</v>
+      </c>
+      <c r="C20" s="4">
+        <v>45505</v>
+      </c>
+      <c r="D20" s="3">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>254.45</v>
+      </c>
+      <c r="F20">
+        <v>911906640</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>37</v>
+      </c>
+      <c r="B21" t="s">
+        <v>34</v>
+      </c>
+      <c r="C21" s="4">
+        <v>45536</v>
+      </c>
+      <c r="D21" s="3">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>268.49</v>
+      </c>
+      <c r="F21">
+        <v>1165358130</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>37</v>
+      </c>
+      <c r="B22" t="s">
+        <v>34</v>
+      </c>
+      <c r="C22" s="4">
+        <v>45566</v>
+      </c>
+      <c r="D22" s="3">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>237.9</v>
+      </c>
+      <c r="F22">
+        <v>873647890</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>37</v>
+      </c>
+      <c r="B23" t="s">
+        <v>34</v>
+      </c>
+      <c r="C23" s="4">
+        <v>45597</v>
+      </c>
+      <c r="D23" s="3">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>236.49</v>
+      </c>
+      <c r="F23">
+        <v>1261459940</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>37</v>
+      </c>
+      <c r="B24" t="s">
+        <v>34</v>
+      </c>
+      <c r="C24" s="4">
+        <v>45627</v>
+      </c>
+      <c r="D24" s="3">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>279.43</v>
+      </c>
+      <c r="F24">
+        <v>1722808380</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>37</v>
+      </c>
+      <c r="B25" t="s">
+        <v>34</v>
+      </c>
+      <c r="C25" s="4">
+        <v>45658</v>
+      </c>
+      <c r="D25" s="3">
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <v>280.73</v>
+      </c>
+      <c r="F25">
+        <v>900958830</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>37</v>
+      </c>
+      <c r="B26" t="s">
+        <v>34</v>
+      </c>
+      <c r="C26" s="4">
+        <v>45689</v>
+      </c>
+      <c r="D26" s="3">
+        <v>0</v>
+      </c>
+      <c r="E26">
+        <v>282.88</v>
+      </c>
+      <c r="F26">
+        <v>97430840</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>36</v>
+      </c>
+      <c r="B27" t="s">
+        <v>34</v>
+      </c>
+      <c r="C27" s="4">
+        <v>44958</v>
+      </c>
+      <c r="D27" s="3">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>157.66</v>
+      </c>
+      <c r="F27">
+        <v>278424100</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>36</v>
+      </c>
+      <c r="B28" t="s">
+        <v>34</v>
+      </c>
+      <c r="C28" s="4">
+        <v>44986</v>
+      </c>
+      <c r="D28" s="3">
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <v>169.83</v>
+      </c>
+      <c r="F28">
+        <v>771877190</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>36</v>
+      </c>
+      <c r="B29" t="s">
+        <v>34</v>
+      </c>
+      <c r="C29" s="4">
+        <v>45017</v>
+      </c>
+      <c r="D29" s="3">
+        <v>0</v>
+      </c>
+      <c r="E29">
+        <v>181.13</v>
+      </c>
+      <c r="F29">
+        <v>763316520</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>36</v>
+      </c>
+      <c r="B30" t="s">
+        <v>34</v>
+      </c>
+      <c r="C30" s="4">
+        <v>45047</v>
+      </c>
+      <c r="D30" s="3">
+        <v>0</v>
+      </c>
+      <c r="E30">
+        <v>162.94</v>
+      </c>
+      <c r="F30">
+        <v>926041830</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>36</v>
+      </c>
+      <c r="B31" t="s">
+        <v>34</v>
+      </c>
+      <c r="C31" s="4">
+        <v>45078</v>
+      </c>
+      <c r="D31" s="3">
+        <v>0</v>
+      </c>
+      <c r="E31">
+        <v>166.86</v>
+      </c>
+      <c r="F31">
+        <v>473134430</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>36</v>
+      </c>
+      <c r="B32" t="s">
+        <v>34</v>
+      </c>
+      <c r="C32" s="4">
+        <v>45108</v>
+      </c>
+      <c r="D32" s="3">
+        <v>0</v>
+      </c>
+      <c r="E32">
+        <v>174.33</v>
+      </c>
+      <c r="F32">
+        <v>426400840</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>36</v>
+      </c>
+      <c r="B33" t="s">
+        <v>34</v>
+      </c>
+      <c r="C33" s="4">
+        <v>45139</v>
+      </c>
+      <c r="D33" s="3">
+        <v>0</v>
+      </c>
+      <c r="E33">
+        <v>177.99</v>
+      </c>
+      <c r="F33">
+        <v>989388550</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>36</v>
+      </c>
+      <c r="B34" t="s">
+        <v>34</v>
+      </c>
+      <c r="C34" s="4">
+        <v>45170</v>
+      </c>
+      <c r="D34" s="3">
+        <v>0</v>
+      </c>
+      <c r="E34">
+        <v>167.09</v>
+      </c>
+      <c r="F34">
+        <v>662323850</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>36</v>
+      </c>
+      <c r="B35" t="s">
+        <v>34</v>
+      </c>
+      <c r="C35" s="4">
+        <v>45200</v>
+      </c>
+      <c r="D35" s="3">
+        <v>0</v>
+      </c>
+      <c r="E35">
+        <v>167.88</v>
+      </c>
+      <c r="F35">
+        <v>554339360</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>36</v>
+      </c>
+      <c r="B36" t="s">
+        <v>34</v>
+      </c>
+      <c r="C36" s="4">
+        <v>45231</v>
+      </c>
+      <c r="D36" s="3">
+        <v>0</v>
+      </c>
+      <c r="E36">
+        <v>163.22999999999999</v>
+      </c>
+      <c r="F36">
+        <v>364024950</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>36</v>
+      </c>
+      <c r="B37" t="s">
+        <v>34</v>
+      </c>
+      <c r="C37" s="4">
+        <v>45261</v>
+      </c>
+      <c r="D37" s="3">
+        <v>0</v>
+      </c>
+      <c r="E37">
+        <v>159.52000000000001</v>
+      </c>
+      <c r="F37">
+        <v>515005210</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>34</v>
+      </c>
+      <c r="C38" s="4">
+        <v>45292</v>
+      </c>
+      <c r="D38" s="3">
+        <v>0</v>
+      </c>
+      <c r="E38">
+        <v>166.33</v>
+      </c>
+      <c r="F38">
+        <v>348775240</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>36</v>
+      </c>
+      <c r="B39" t="s">
+        <v>34</v>
+      </c>
+      <c r="C39" s="4">
+        <v>45323</v>
+      </c>
+      <c r="D39" s="3">
+        <v>0</v>
+      </c>
+      <c r="E39">
+        <v>161.82</v>
+      </c>
+      <c r="F39">
+        <v>375877010</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>36</v>
+      </c>
+      <c r="B40" t="s">
+        <v>34</v>
+      </c>
+      <c r="C40" s="4">
+        <v>45352</v>
+      </c>
+      <c r="D40" s="3">
+        <v>0</v>
+      </c>
+      <c r="E40">
+        <v>157.22</v>
+      </c>
+      <c r="F40">
+        <v>379824440</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>36</v>
+      </c>
+      <c r="B41" t="s">
+        <v>34</v>
+      </c>
+      <c r="C41" s="4">
+        <v>45383</v>
+      </c>
+      <c r="D41" s="3">
+        <v>0</v>
+      </c>
+      <c r="E41">
+        <v>163.22</v>
+      </c>
+      <c r="F41">
+        <v>592717300</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>36</v>
+      </c>
+      <c r="B42" t="s">
+        <v>34</v>
+      </c>
+      <c r="C42" s="4">
+        <v>45413</v>
+      </c>
+      <c r="D42" s="3">
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <v>126.46</v>
+      </c>
+      <c r="F42">
+        <v>1248612410</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>36</v>
+      </c>
+      <c r="B43" t="s">
+        <v>34</v>
+      </c>
+      <c r="C43" s="4">
+        <v>45444</v>
+      </c>
+      <c r="D43" s="3">
+        <v>0</v>
+      </c>
+      <c r="E43">
+        <v>115.94</v>
+      </c>
+      <c r="F43">
+        <v>1000010030</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>36</v>
+      </c>
+      <c r="B44" t="s">
+        <v>34</v>
+      </c>
+      <c r="C44" s="4">
+        <v>45474</v>
+      </c>
+      <c r="D44" s="3">
+        <v>0</v>
+      </c>
+      <c r="E44">
+        <v>133.31</v>
+      </c>
+      <c r="F44">
+        <v>1821637850</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>36</v>
+      </c>
+      <c r="B45" t="s">
+        <v>34</v>
+      </c>
+      <c r="C45" s="4">
+        <v>45505</v>
+      </c>
+      <c r="D45" s="3">
+        <v>0</v>
+      </c>
+      <c r="E45">
+        <v>122.97</v>
+      </c>
+      <c r="F45">
+        <v>1210658310</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>36</v>
+      </c>
+      <c r="B46" t="s">
+        <v>34</v>
+      </c>
+      <c r="C46" s="4">
+        <v>45536</v>
+      </c>
+      <c r="D46" s="3">
+        <v>0</v>
+      </c>
+      <c r="E46">
+        <v>138.19</v>
+      </c>
+      <c r="F46">
+        <v>1690300980</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>36</v>
+      </c>
+      <c r="B47" t="s">
+        <v>34</v>
+      </c>
+      <c r="C47" s="4">
+        <v>45566</v>
+      </c>
+      <c r="D47" s="3">
+        <v>0</v>
+      </c>
+      <c r="E47">
+        <v>123.44</v>
+      </c>
+      <c r="F47">
+        <v>996936770</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>36</v>
+      </c>
+      <c r="B48" t="s">
+        <v>34</v>
+      </c>
+      <c r="C48" s="4">
+        <v>45597</v>
+      </c>
+      <c r="D48" s="3">
+        <v>0</v>
+      </c>
+      <c r="E48">
+        <v>124.29</v>
+      </c>
+      <c r="F48">
+        <v>1171151760</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>36</v>
+      </c>
+      <c r="B49" t="s">
+        <v>34</v>
+      </c>
+      <c r="C49" s="4">
+        <v>45627</v>
+      </c>
+      <c r="D49" s="3">
+        <v>0</v>
+      </c>
+      <c r="E49">
+        <v>133.12</v>
+      </c>
+      <c r="F49">
+        <v>1688275480</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>36</v>
+      </c>
+      <c r="B50" t="s">
+        <v>34</v>
+      </c>
+      <c r="C50" s="4">
+        <v>45658</v>
+      </c>
+      <c r="D50" s="3">
+        <v>0</v>
+      </c>
+      <c r="E50">
+        <v>140.84</v>
+      </c>
+      <c r="F50">
+        <v>1261102340</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>36</v>
+      </c>
+      <c r="B51" t="s">
+        <v>34</v>
+      </c>
+      <c r="C51" s="4">
+        <v>45689</v>
+      </c>
+      <c r="D51" s="3">
+        <v>0</v>
+      </c>
+      <c r="E51">
+        <v>140.44999999999999</v>
+      </c>
+      <c r="F51">
+        <v>179027490</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>35</v>
+      </c>
+      <c r="B52" t="s">
+        <v>34</v>
+      </c>
+      <c r="C52" s="4">
+        <v>44958</v>
+      </c>
+      <c r="D52" s="3">
+        <v>0</v>
+      </c>
+      <c r="E52">
+        <v>1.6459999999999999E-2</v>
+      </c>
+      <c r="F52">
+        <v>648765040000</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>35</v>
+      </c>
+      <c r="B53" t="s">
+        <v>34</v>
+      </c>
+      <c r="C53" s="4">
+        <v>44986</v>
+      </c>
+      <c r="D53" s="3">
+        <v>0</v>
+      </c>
+      <c r="E53">
+        <v>1.814E-2</v>
+      </c>
+      <c r="F53">
+        <v>2066844030000</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>35</v>
+      </c>
+      <c r="B54" t="s">
+        <v>34</v>
+      </c>
+      <c r="C54" s="4">
+        <v>45017</v>
+      </c>
+      <c r="D54" s="3">
+        <v>0</v>
+      </c>
+      <c r="E54">
+        <v>2.222E-2</v>
+      </c>
+      <c r="F54">
+        <v>4687018980000</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>35</v>
+      </c>
+      <c r="B55" t="s">
+        <v>34</v>
+      </c>
+      <c r="C55" s="4">
+        <v>45047</v>
+      </c>
+      <c r="D55" s="3">
+        <v>0</v>
+      </c>
+      <c r="E55">
+        <v>2.2200000000000001E-2</v>
+      </c>
+      <c r="F55">
+        <v>5244308580000</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>35</v>
+      </c>
+      <c r="B56" t="s">
+        <v>34</v>
+      </c>
+      <c r="C56" s="4">
+        <v>45078</v>
+      </c>
+      <c r="D56" s="3">
+        <v>0</v>
+      </c>
+      <c r="E56">
+        <v>2.1684999999999999E-2</v>
+      </c>
+      <c r="F56">
+        <v>3657223840000</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>35</v>
+      </c>
+      <c r="B57" t="s">
+        <v>34</v>
+      </c>
+      <c r="C57" s="4">
+        <v>45108</v>
+      </c>
+      <c r="D57" s="3">
+        <v>0</v>
+      </c>
+      <c r="E57">
+        <v>2.5815000000000001E-2</v>
+      </c>
+      <c r="F57">
+        <v>3099201000000</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>35</v>
+      </c>
+      <c r="B58" t="s">
+        <v>34</v>
+      </c>
+      <c r="C58" s="4">
+        <v>45139</v>
+      </c>
+      <c r="D58" s="3">
+        <v>0</v>
+      </c>
+      <c r="E58">
+        <v>2.8825E-2</v>
+      </c>
+      <c r="F58">
+        <v>4868796370000</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>35</v>
+      </c>
+      <c r="B59" t="s">
+        <v>34</v>
+      </c>
+      <c r="C59" s="4">
+        <v>45170</v>
+      </c>
+      <c r="D59" s="3">
+        <v>0</v>
+      </c>
+      <c r="E59">
+        <v>2.5700000000000001E-2</v>
+      </c>
+      <c r="F59">
+        <v>2907808570000</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>35</v>
+      </c>
+      <c r="B60" t="s">
+        <v>34</v>
+      </c>
+      <c r="C60" s="4">
+        <v>45200</v>
+      </c>
+      <c r="D60" s="3">
+        <v>0</v>
+      </c>
+      <c r="E60">
+        <v>2.5315000000000001E-2</v>
+      </c>
+      <c r="F60">
+        <v>2042489010000</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>35</v>
+      </c>
+      <c r="B61" t="s">
+        <v>34</v>
+      </c>
+      <c r="C61" s="4">
+        <v>45231</v>
+      </c>
+      <c r="D61" s="3">
+        <v>0</v>
+      </c>
+      <c r="E61">
+        <v>2.3885E-2</v>
+      </c>
+      <c r="F61">
+        <v>1392555110000</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>35</v>
+      </c>
+      <c r="B62" t="s">
+        <v>34</v>
+      </c>
+      <c r="C62" s="4">
+        <v>45261</v>
+      </c>
+      <c r="D62" s="3">
+        <v>0</v>
+      </c>
+      <c r="E62">
+        <v>2.2679999999999999E-2</v>
+      </c>
+      <c r="F62">
+        <v>1878579800000</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>35</v>
+      </c>
+      <c r="B63" t="s">
+        <v>34</v>
+      </c>
+      <c r="C63" s="4">
+        <v>45292</v>
+      </c>
+      <c r="D63" s="3">
+        <v>0</v>
+      </c>
+      <c r="E63">
+        <v>2.4575E-2</v>
+      </c>
+      <c r="F63">
+        <v>1693390250000</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>35</v>
+      </c>
+      <c r="B64" t="s">
+        <v>34</v>
+      </c>
+      <c r="C64" s="4">
+        <v>45323</v>
+      </c>
+      <c r="D64" s="3">
+        <v>0</v>
+      </c>
+      <c r="E64">
+        <v>2.3425000000000001E-2</v>
+      </c>
+      <c r="F64">
+        <v>2662986070000</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>35</v>
+      </c>
+      <c r="B65" t="s">
+        <v>34</v>
+      </c>
+      <c r="C65" s="4">
+        <v>45352</v>
+      </c>
+      <c r="D65" s="3">
+        <v>0</v>
+      </c>
+      <c r="E65">
+        <v>2.2925000000000001E-2</v>
+      </c>
+      <c r="F65">
+        <v>1725155340000</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>35</v>
+      </c>
+      <c r="B66" t="s">
+        <v>34</v>
+      </c>
+      <c r="C66" s="4">
+        <v>45383</v>
+      </c>
+      <c r="D66" s="3">
+        <v>0</v>
+      </c>
+      <c r="E66">
+        <v>2.3365E-2</v>
+      </c>
+      <c r="F66">
+        <v>2353420290000</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>35</v>
+      </c>
+      <c r="B67" t="s">
+        <v>34</v>
+      </c>
+      <c r="C67" s="4">
+        <v>45413</v>
+      </c>
+      <c r="D67" s="3">
+        <v>0</v>
+      </c>
+      <c r="E67">
+        <v>1.9765000000000001E-2</v>
+      </c>
+      <c r="F67">
+        <v>2176922940000</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>35</v>
+      </c>
+      <c r="B68" t="s">
+        <v>34</v>
+      </c>
+      <c r="C68" s="4">
+        <v>45444</v>
+      </c>
+      <c r="D68" s="3">
+        <v>0</v>
+      </c>
+      <c r="E68">
+        <v>2.1139999999999999E-2</v>
+      </c>
+      <c r="F68">
+        <v>3251499430000</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>35</v>
+      </c>
+      <c r="B69" t="s">
+        <v>34</v>
+      </c>
+      <c r="C69" s="4">
+        <v>45474</v>
+      </c>
+      <c r="D69" s="3">
+        <v>0</v>
+      </c>
+      <c r="E69">
+        <v>97.82</v>
+      </c>
+      <c r="F69">
+        <v>675206615492</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>35</v>
+      </c>
+      <c r="B70" t="s">
+        <v>34</v>
+      </c>
+      <c r="C70" s="4">
+        <v>45505</v>
+      </c>
+      <c r="D70" s="3">
+        <v>0</v>
+      </c>
+      <c r="E70">
+        <v>91.48</v>
+      </c>
+      <c r="F70">
+        <v>687373348</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>35</v>
+      </c>
+      <c r="B71" t="s">
+        <v>34</v>
+      </c>
+      <c r="C71" s="4">
+        <v>45536</v>
+      </c>
+      <c r="D71" s="3">
+        <v>0</v>
+      </c>
+      <c r="E71">
+        <v>89.03</v>
+      </c>
+      <c r="F71">
+        <v>672660053</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>35</v>
+      </c>
+      <c r="B72" t="s">
+        <v>34</v>
+      </c>
+      <c r="C72" s="4">
+        <v>45566</v>
+      </c>
+      <c r="D72" s="3">
+        <v>0</v>
+      </c>
+      <c r="E72">
+        <v>75.25</v>
+      </c>
+      <c r="F72">
+        <v>651864076</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>35</v>
+      </c>
+      <c r="B73" t="s">
+        <v>34</v>
+      </c>
+      <c r="C73" s="4">
+        <v>45597</v>
+      </c>
+      <c r="D73" s="3">
+        <v>0</v>
+      </c>
+      <c r="E73">
+        <v>69.5</v>
+      </c>
+      <c r="F73">
+        <v>724739981</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>35</v>
+      </c>
+      <c r="B74" t="s">
+        <v>34</v>
+      </c>
+      <c r="C74" s="4">
+        <v>45627</v>
+      </c>
+      <c r="D74" s="3">
+        <v>0</v>
+      </c>
+      <c r="E74">
+        <v>80.03</v>
+      </c>
+      <c r="F74">
+        <v>696875988</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>35</v>
+      </c>
+      <c r="B75" t="s">
+        <v>34</v>
+      </c>
+      <c r="C75" s="4">
+        <v>45658</v>
+      </c>
+      <c r="D75" s="3">
+        <v>0</v>
+      </c>
+      <c r="E75">
+        <v>83.89</v>
+      </c>
+      <c r="F75">
+        <v>662220048</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>35</v>
+      </c>
+      <c r="B76" t="s">
+        <v>34</v>
+      </c>
+      <c r="C76" s="4">
+        <v>45689</v>
+      </c>
+      <c r="D76" s="3">
+        <v>0</v>
+      </c>
+      <c r="E76">
+        <v>82.09</v>
+      </c>
+      <c r="F76">
+        <v>109230200</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>